--- a/differences_3_0.85.xlsx
+++ b/differences_3_0.85.xlsx
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47032.29999999999</v>
+        <v>47032</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-7262.399999999994</v>
+        <v>-7263</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>18.7</v>
+        <v>18</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
